--- a/data/output/FV2504_FV2410/ORDERS/17121.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17121.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="343">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="343">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1187,6 +1187,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U205" totalsRowShown="0">
+  <autoFilter ref="A1:U205"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1476,7 +1506,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10608,5 +10641,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17121.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17121.xlsx
@@ -1771,7 +1771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1794,6 +1794,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1802,6 +1805,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2244,7 +2250,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2608,7 +2614,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2754,7 +2760,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2958,7 +2964,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -3158,7 +3164,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -3356,7 +3362,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3562,7 +3568,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3878,7 +3884,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4052,52 +4058,52 @@
       <c r="V37" s="5"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P38" s="5"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5" t="s">
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V38" s="5"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -4454,7 +4460,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4766,7 +4772,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5050,22 +5056,22 @@
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8" t="s">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="L57" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M57" s="5"/>
@@ -5083,27 +5089,27 @@
       <c r="A58" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9" t="s">
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M58" s="5"/>
@@ -5121,33 +5127,33 @@
       <c r="A59" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L59" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M59" s="5"/>
@@ -5165,31 +5171,31 @@
       <c r="A60" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M60" s="5"/>
@@ -5207,27 +5213,27 @@
       <c r="A61" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9" t="s">
+      <c r="K61" s="9"/>
+      <c r="L61" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M61" s="5"/>
@@ -5245,29 +5251,29 @@
       <c r="A62" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M62" s="5"/>
@@ -5285,33 +5291,33 @@
       <c r="A63" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="L63" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M63" s="5"/>
@@ -5329,33 +5335,33 @@
       <c r="A64" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8" t="s">
+      <c r="H64" s="9"/>
+      <c r="I64" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9" t="s">
+      <c r="K64" s="9"/>
+      <c r="L64" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M64" s="5"/>
@@ -5383,25 +5389,25 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11" t="s">
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="V65" s="11" t="s">
+      <c r="V65" s="13" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5419,29 +5425,29 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11" t="s">
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11" t="s">
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="V66" s="11"/>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -5457,33 +5463,33 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q67" s="11" t="s">
+      <c r="Q67" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11" t="s">
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="U67" s="11" t="s">
+      <c r="U67" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="V67" s="11" t="s">
+      <c r="V67" s="13" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5501,33 +5507,33 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Q68" s="11" t="s">
+      <c r="Q68" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="R68" s="11" t="s">
+      <c r="R68" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11" t="s">
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="V68" s="11"/>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -5543,29 +5549,29 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11" t="s">
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11" t="s">
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="V69" s="11"/>
+      <c r="V69" s="13"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -5581,31 +5587,31 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11" t="s">
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="V70" s="11"/>
+      <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
@@ -5621,33 +5627,33 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q71" s="11" t="s">
+      <c r="Q71" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11" t="s">
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="U71" s="11" t="s">
+      <c r="U71" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="V71" s="11" t="s">
+      <c r="V71" s="13" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5665,53 +5671,53 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M72" s="11" t="s">
+      <c r="M72" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="N72" s="11" t="s">
+      <c r="N72" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O72" s="11" t="s">
+      <c r="O72" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q72" s="11" t="s">
+      <c r="Q72" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="R72" s="11" t="s">
+      <c r="R72" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11" t="s">
+      <c r="S72" s="13"/>
+      <c r="T72" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="U72" s="11" t="s">
+      <c r="U72" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="V72" s="11"/>
+      <c r="V72" s="13"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="C73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>260</v>
       </c>
       <c r="K73" s="6" t="s">
@@ -5720,19 +5726,19 @@
       <c r="L73" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N73" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="N73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>260</v>
       </c>
       <c r="V73" s="6" t="s">
@@ -5928,7 +5934,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6054,52 +6060,52 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="C80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="2"/>
       <c r="L80" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N80" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O80" s="5" t="s">
+      <c r="N80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O80" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P80" s="5"/>
+      <c r="P80" s="2"/>
       <c r="Q80" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V80" s="5"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
@@ -6398,7 +6404,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6524,52 +6530,52 @@
       <c r="V88" s="5"/>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="C89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E89" s="5"/>
+      <c r="E89" s="2"/>
       <c r="F89" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5" t="s">
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K89" s="5"/>
+      <c r="K89" s="2"/>
       <c r="L89" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M89" s="5" t="s">
+      <c r="M89" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N89" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O89" s="5" t="s">
+      <c r="N89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O89" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P89" s="5"/>
+      <c r="P89" s="2"/>
       <c r="Q89" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5" t="s">
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V89" s="5"/>
+      <c r="V89" s="2"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -6848,22 +6854,22 @@
       <c r="V94" s="5"/>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5" t="s">
+      <c r="C95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
         <v>271</v>
       </c>
       <c r="K95" s="6" t="s">
@@ -6872,19 +6878,19 @@
       <c r="L95" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="M95" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N95" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5" t="s">
+      <c r="N95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2" t="s">
         <v>271</v>
       </c>
       <c r="V95" s="6" t="s">
@@ -7000,52 +7006,52 @@
       <c r="V97" s="5"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="C98" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K98" s="5"/>
+      <c r="K98" s="2"/>
       <c r="L98" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="M98" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N98" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O98" s="5" t="s">
+      <c r="N98" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O98" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P98" s="5"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -7168,22 +7174,22 @@
       <c r="B101" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8" t="s">
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K101" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="L101" s="9" t="s">
+      <c r="L101" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M101" s="5"/>
@@ -7201,27 +7207,27 @@
       <c r="A102" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8" t="s">
+      <c r="E102" s="9"/>
+      <c r="F102" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8" t="s">
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M102" s="5"/>
@@ -7239,33 +7245,33 @@
       <c r="A103" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8" t="s">
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J103" s="8" t="s">
+      <c r="J103" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="K103" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="L103" s="9" t="s">
+      <c r="L103" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M103" s="5"/>
@@ -7283,31 +7289,31 @@
       <c r="A104" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8" t="s">
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9" t="s">
+      <c r="K104" s="9"/>
+      <c r="L104" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M104" s="5"/>
@@ -7325,27 +7331,27 @@
       <c r="A105" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8" t="s">
+      <c r="E105" s="9"/>
+      <c r="F105" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8" t="s">
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K105" s="8"/>
-      <c r="L105" s="9" t="s">
+      <c r="K105" s="9"/>
+      <c r="L105" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M105" s="5"/>
@@ -7363,29 +7369,29 @@
       <c r="A106" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8" t="s">
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K106" s="8"/>
-      <c r="L106" s="9" t="s">
+      <c r="K106" s="9"/>
+      <c r="L106" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M106" s="5"/>
@@ -7403,33 +7409,33 @@
       <c r="A107" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8" t="s">
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J107" s="8" t="s">
+      <c r="J107" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="L107" s="9" t="s">
+      <c r="L107" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M107" s="5"/>
@@ -7447,33 +7453,33 @@
       <c r="A108" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="G108" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8" t="s">
+      <c r="H108" s="9"/>
+      <c r="I108" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J108" s="8" t="s">
+      <c r="J108" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="9" t="s">
+      <c r="K108" s="9"/>
+      <c r="L108" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M108" s="5"/>
@@ -7501,25 +7507,25 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="N109" s="11" t="s">
+      <c r="N109" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O109" s="11"/>
-      <c r="P109" s="11"/>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11"/>
-      <c r="U109" s="11" t="s">
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
+      <c r="U109" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="V109" s="11" t="s">
+      <c r="V109" s="13" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7537,29 +7543,29 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="N110" s="11" t="s">
+      <c r="N110" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O110" s="11" t="s">
+      <c r="O110" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="11" t="s">
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11"/>
-      <c r="U110" s="11" t="s">
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
+      <c r="T110" s="13"/>
+      <c r="U110" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="V110" s="11"/>
+      <c r="V110" s="13"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -7575,33 +7581,33 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M111" s="11" t="s">
+      <c r="M111" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="N111" s="11" t="s">
+      <c r="N111" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P111" s="11" t="s">
+      <c r="P111" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q111" s="11" t="s">
+      <c r="Q111" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11" t="s">
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+      <c r="T111" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="U111" s="11" t="s">
+      <c r="U111" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="V111" s="11" t="s">
+      <c r="V111" s="13" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7619,33 +7625,33 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="10" t="s">
+      <c r="L112" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M112" s="11" t="s">
+      <c r="M112" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="N112" s="11" t="s">
+      <c r="N112" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P112" s="11" t="s">
+      <c r="P112" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Q112" s="11" t="s">
+      <c r="Q112" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="R112" s="11" t="s">
+      <c r="R112" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11"/>
-      <c r="U112" s="11" t="s">
+      <c r="S112" s="13"/>
+      <c r="T112" s="13"/>
+      <c r="U112" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="V112" s="11"/>
+      <c r="V112" s="13"/>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="5" t="s">
@@ -7661,29 +7667,29 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="N113" s="11" t="s">
+      <c r="N113" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P113" s="11"/>
-      <c r="Q113" s="11" t="s">
+      <c r="P113" s="13"/>
+      <c r="Q113" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11"/>
-      <c r="U113" s="11" t="s">
+      <c r="R113" s="13"/>
+      <c r="S113" s="13"/>
+      <c r="T113" s="13"/>
+      <c r="U113" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="V113" s="11"/>
+      <c r="V113" s="13"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -7699,31 +7705,31 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
-      <c r="L114" s="10" t="s">
+      <c r="L114" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M114" s="11" t="s">
+      <c r="M114" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="N114" s="11" t="s">
+      <c r="N114" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O114" s="11" t="s">
+      <c r="O114" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P114" s="11" t="s">
+      <c r="P114" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q114" s="11" t="s">
+      <c r="Q114" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11"/>
-      <c r="U114" s="11" t="s">
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="13"/>
+      <c r="U114" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="V114" s="11"/>
+      <c r="V114" s="13"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="5" t="s">
@@ -7739,33 +7745,33 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
-      <c r="L115" s="10" t="s">
+      <c r="L115" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M115" s="11" t="s">
+      <c r="M115" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="N115" s="11" t="s">
+      <c r="N115" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O115" s="11" t="s">
+      <c r="O115" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P115" s="11" t="s">
+      <c r="P115" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q115" s="11" t="s">
+      <c r="Q115" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11" t="s">
+      <c r="R115" s="13"/>
+      <c r="S115" s="13"/>
+      <c r="T115" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="U115" s="11" t="s">
+      <c r="U115" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="V115" s="11" t="s">
+      <c r="V115" s="13" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7783,35 +7789,35 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
-      <c r="L116" s="10" t="s">
+      <c r="L116" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M116" s="11" t="s">
+      <c r="M116" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="N116" s="11" t="s">
+      <c r="N116" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O116" s="11" t="s">
+      <c r="O116" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P116" s="11" t="s">
+      <c r="P116" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q116" s="11" t="s">
+      <c r="Q116" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="R116" s="11" t="s">
+      <c r="R116" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="S116" s="11"/>
-      <c r="T116" s="11" t="s">
+      <c r="S116" s="13"/>
+      <c r="T116" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="U116" s="11" t="s">
+      <c r="U116" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="V116" s="11"/>
+      <c r="V116" s="13"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="2" t="s">
@@ -7834,7 +7840,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7960,52 +7966,52 @@
       <c r="V119" s="5"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D120" s="5" t="s">
+      <c r="C120" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5" t="s">
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K120" s="5"/>
+      <c r="K120" s="2"/>
       <c r="L120" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M120" s="5" t="s">
+      <c r="M120" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N120" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O120" s="5" t="s">
+      <c r="N120" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O120" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P120" s="5"/>
+      <c r="P120" s="2"/>
       <c r="Q120" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-      <c r="U120" s="5" t="s">
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V120" s="5"/>
+      <c r="V120" s="2"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
@@ -8142,7 +8148,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8268,52 +8274,52 @@
       <c r="V125" s="5"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D126" s="5" t="s">
+      <c r="C126" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E126" s="5"/>
+      <c r="E126" s="2"/>
       <c r="F126" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5" t="s">
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K126" s="5"/>
+      <c r="K126" s="2"/>
       <c r="L126" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M126" s="5" t="s">
+      <c r="M126" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N126" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O126" s="5" t="s">
+      <c r="N126" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O126" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P126" s="5"/>
+      <c r="P126" s="2"/>
       <c r="Q126" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="5"/>
-      <c r="U126" s="5" t="s">
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V126" s="5"/>
+      <c r="V126" s="2"/>
     </row>
     <row r="127" spans="1:22">
       <c r="A127" s="5" t="s">
@@ -8450,7 +8456,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8576,52 +8582,52 @@
       <c r="V131" s="5"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D132" s="5" t="s">
+      <c r="C132" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E132" s="5"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5" t="s">
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K132" s="5"/>
+      <c r="K132" s="2"/>
       <c r="L132" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M132" s="5" t="s">
+      <c r="M132" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N132" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O132" s="5" t="s">
+      <c r="N132" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O132" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P132" s="5"/>
+      <c r="P132" s="2"/>
       <c r="Q132" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5" t="s">
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V132" s="5"/>
+      <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="5" t="s">
@@ -8758,7 +8764,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -8950,22 +8956,22 @@
       <c r="B139" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8" t="s">
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="K139" s="8" t="s">
+      <c r="K139" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="L139" s="9" t="s">
+      <c r="L139" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M139" s="5"/>
@@ -8983,27 +8989,27 @@
       <c r="A140" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
+      <c r="E140" s="9"/>
+      <c r="F140" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8" t="s">
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K140" s="8"/>
-      <c r="L140" s="9" t="s">
+      <c r="K140" s="9"/>
+      <c r="L140" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M140" s="5"/>
@@ -9021,33 +9027,33 @@
       <c r="A141" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F141" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8" t="s">
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J141" s="8" t="s">
+      <c r="J141" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K141" s="8" t="s">
+      <c r="K141" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="L141" s="9" t="s">
+      <c r="L141" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M141" s="5"/>
@@ -9065,31 +9071,31 @@
       <c r="A142" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F142" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G142" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8" t="s">
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K142" s="8"/>
-      <c r="L142" s="9" t="s">
+      <c r="K142" s="9"/>
+      <c r="L142" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M142" s="5"/>
@@ -9107,27 +9113,27 @@
       <c r="A143" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8" t="s">
+      <c r="E143" s="9"/>
+      <c r="F143" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8" t="s">
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K143" s="8"/>
-      <c r="L143" s="9" t="s">
+      <c r="K143" s="9"/>
+      <c r="L143" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M143" s="5"/>
@@ -9145,29 +9151,29 @@
       <c r="A144" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E144" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F144" s="8" t="s">
+      <c r="F144" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8" t="s">
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K144" s="8"/>
-      <c r="L144" s="9" t="s">
+      <c r="K144" s="9"/>
+      <c r="L144" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M144" s="5"/>
@@ -9185,33 +9191,33 @@
       <c r="A145" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8" t="s">
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J145" s="8" t="s">
+      <c r="J145" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="K145" s="8" t="s">
+      <c r="K145" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="L145" s="9" t="s">
+      <c r="L145" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M145" s="5"/>
@@ -9229,33 +9235,33 @@
       <c r="A146" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F146" s="8" t="s">
+      <c r="F146" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G146" s="8" t="s">
+      <c r="G146" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8" t="s">
+      <c r="H146" s="9"/>
+      <c r="I146" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J146" s="8" t="s">
+      <c r="J146" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K146" s="8"/>
-      <c r="L146" s="9" t="s">
+      <c r="K146" s="9"/>
+      <c r="L146" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M146" s="5"/>
@@ -9283,25 +9289,25 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
-      <c r="L147" s="10" t="s">
+      <c r="L147" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M147" s="11" t="s">
+      <c r="M147" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="N147" s="11" t="s">
+      <c r="N147" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O147" s="11"/>
-      <c r="P147" s="11"/>
-      <c r="Q147" s="11"/>
-      <c r="R147" s="11"/>
-      <c r="S147" s="11"/>
-      <c r="T147" s="11"/>
-      <c r="U147" s="11" t="s">
+      <c r="O147" s="13"/>
+      <c r="P147" s="13"/>
+      <c r="Q147" s="13"/>
+      <c r="R147" s="13"/>
+      <c r="S147" s="13"/>
+      <c r="T147" s="13"/>
+      <c r="U147" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="V147" s="11" t="s">
+      <c r="V147" s="13" t="s">
         <v>301</v>
       </c>
     </row>
@@ -9319,29 +9325,29 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
-      <c r="L148" s="10" t="s">
+      <c r="L148" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M148" s="11" t="s">
+      <c r="M148" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="N148" s="11" t="s">
+      <c r="N148" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O148" s="11" t="s">
+      <c r="O148" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P148" s="11"/>
-      <c r="Q148" s="11" t="s">
+      <c r="P148" s="13"/>
+      <c r="Q148" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="R148" s="11"/>
-      <c r="S148" s="11"/>
-      <c r="T148" s="11"/>
-      <c r="U148" s="11" t="s">
+      <c r="R148" s="13"/>
+      <c r="S148" s="13"/>
+      <c r="T148" s="13"/>
+      <c r="U148" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="V148" s="11"/>
+      <c r="V148" s="13"/>
     </row>
     <row r="149" spans="1:22">
       <c r="A149" s="5" t="s">
@@ -9357,33 +9363,33 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
-      <c r="L149" s="10" t="s">
+      <c r="L149" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M149" s="11" t="s">
+      <c r="M149" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="N149" s="11" t="s">
+      <c r="N149" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O149" s="11" t="s">
+      <c r="O149" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P149" s="11" t="s">
+      <c r="P149" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q149" s="11" t="s">
+      <c r="Q149" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="R149" s="11"/>
-      <c r="S149" s="11"/>
-      <c r="T149" s="11" t="s">
+      <c r="R149" s="13"/>
+      <c r="S149" s="13"/>
+      <c r="T149" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="U149" s="11" t="s">
+      <c r="U149" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="V149" s="11" t="s">
+      <c r="V149" s="13" t="s">
         <v>292</v>
       </c>
     </row>
@@ -9401,33 +9407,33 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
-      <c r="L150" s="10" t="s">
+      <c r="L150" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M150" s="11" t="s">
+      <c r="M150" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="N150" s="11" t="s">
+      <c r="N150" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O150" s="11" t="s">
+      <c r="O150" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P150" s="11" t="s">
+      <c r="P150" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Q150" s="11" t="s">
+      <c r="Q150" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="R150" s="11" t="s">
+      <c r="R150" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="S150" s="11"/>
-      <c r="T150" s="11"/>
-      <c r="U150" s="11" t="s">
+      <c r="S150" s="13"/>
+      <c r="T150" s="13"/>
+      <c r="U150" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="V150" s="11"/>
+      <c r="V150" s="13"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="5" t="s">
@@ -9443,29 +9449,29 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
-      <c r="L151" s="10" t="s">
+      <c r="L151" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M151" s="11" t="s">
+      <c r="M151" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="N151" s="11" t="s">
+      <c r="N151" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O151" s="11" t="s">
+      <c r="O151" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P151" s="11"/>
-      <c r="Q151" s="11" t="s">
+      <c r="P151" s="13"/>
+      <c r="Q151" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="R151" s="11"/>
-      <c r="S151" s="11"/>
-      <c r="T151" s="11"/>
-      <c r="U151" s="11" t="s">
+      <c r="R151" s="13"/>
+      <c r="S151" s="13"/>
+      <c r="T151" s="13"/>
+      <c r="U151" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="V151" s="11"/>
+      <c r="V151" s="13"/>
     </row>
     <row r="152" spans="1:22">
       <c r="A152" s="5" t="s">
@@ -9481,31 +9487,31 @@
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
-      <c r="L152" s="10" t="s">
+      <c r="L152" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M152" s="11" t="s">
+      <c r="M152" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="N152" s="11" t="s">
+      <c r="N152" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O152" s="11" t="s">
+      <c r="O152" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P152" s="11" t="s">
+      <c r="P152" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q152" s="11" t="s">
+      <c r="Q152" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="R152" s="11"/>
-      <c r="S152" s="11"/>
-      <c r="T152" s="11"/>
-      <c r="U152" s="11" t="s">
+      <c r="R152" s="13"/>
+      <c r="S152" s="13"/>
+      <c r="T152" s="13"/>
+      <c r="U152" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="V152" s="11"/>
+      <c r="V152" s="13"/>
     </row>
     <row r="153" spans="1:22">
       <c r="A153" s="5" t="s">
@@ -9521,33 +9527,33 @@
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
-      <c r="L153" s="10" t="s">
+      <c r="L153" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M153" s="11" t="s">
+      <c r="M153" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="N153" s="11" t="s">
+      <c r="N153" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O153" s="11" t="s">
+      <c r="O153" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P153" s="11" t="s">
+      <c r="P153" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q153" s="11" t="s">
+      <c r="Q153" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="R153" s="11"/>
-      <c r="S153" s="11"/>
-      <c r="T153" s="11" t="s">
+      <c r="R153" s="13"/>
+      <c r="S153" s="13"/>
+      <c r="T153" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="U153" s="11" t="s">
+      <c r="U153" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="V153" s="11" t="s">
+      <c r="V153" s="13" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9565,35 +9571,35 @@
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
-      <c r="L154" s="10" t="s">
+      <c r="L154" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M154" s="11" t="s">
+      <c r="M154" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="N154" s="11" t="s">
+      <c r="N154" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O154" s="11" t="s">
+      <c r="O154" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P154" s="11" t="s">
+      <c r="P154" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q154" s="11" t="s">
+      <c r="Q154" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="R154" s="11" t="s">
+      <c r="R154" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="S154" s="11"/>
-      <c r="T154" s="11" t="s">
+      <c r="S154" s="13"/>
+      <c r="T154" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="U154" s="11" t="s">
+      <c r="U154" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="V154" s="11"/>
+      <c r="V154" s="13"/>
     </row>
     <row r="155" spans="1:22">
       <c r="A155" s="2" t="s">
@@ -9616,7 +9622,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -9738,52 +9744,52 @@
       <c r="V157" s="5"/>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D158" s="5" t="s">
+      <c r="C158" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E158" s="5"/>
+      <c r="E158" s="2"/>
       <c r="F158" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5" t="s">
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K158" s="5"/>
+      <c r="K158" s="2"/>
       <c r="L158" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M158" s="5" t="s">
+      <c r="M158" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N158" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O158" s="5" t="s">
+      <c r="N158" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O158" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P158" s="5"/>
+      <c r="P158" s="2"/>
       <c r="Q158" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="R158" s="5"/>
-      <c r="S158" s="5"/>
-      <c r="T158" s="5"/>
-      <c r="U158" s="5" t="s">
+      <c r="R158" s="2"/>
+      <c r="S158" s="2"/>
+      <c r="T158" s="2"/>
+      <c r="U158" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V158" s="5"/>
+      <c r="V158" s="2"/>
     </row>
     <row r="159" spans="1:22">
       <c r="A159" s="5" t="s">
@@ -9960,52 +9966,52 @@
       <c r="V161" s="5"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D162" s="5" t="s">
+      <c r="C162" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E162" s="5"/>
+      <c r="E162" s="2"/>
       <c r="F162" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5" t="s">
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K162" s="5"/>
+      <c r="K162" s="2"/>
       <c r="L162" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M162" s="5" t="s">
+      <c r="M162" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N162" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O162" s="5" t="s">
+      <c r="N162" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P162" s="5"/>
+      <c r="P162" s="2"/>
       <c r="Q162" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-      <c r="U162" s="5" t="s">
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V162" s="5"/>
+      <c r="V162" s="2"/>
     </row>
     <row r="163" spans="1:22">
       <c r="A163" s="5" t="s">
@@ -10182,22 +10188,22 @@
       <c r="V165" s="5"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
+      <c r="C166" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
         <v>280</v>
       </c>
       <c r="K166" s="6" t="s">
@@ -10206,19 +10212,19 @@
       <c r="L166" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M166" s="5" t="s">
+      <c r="M166" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N166" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
+      <c r="N166" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
         <v>280</v>
       </c>
       <c r="V166" s="6" t="s">
@@ -10414,7 +10420,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -10606,22 +10612,22 @@
       <c r="B174" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="8" t="s">
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="K174" s="8" t="s">
+      <c r="K174" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="L174" s="9" t="s">
+      <c r="L174" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M174" s="5"/>
@@ -10639,27 +10645,27 @@
       <c r="A175" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8" t="s">
+      <c r="E175" s="9"/>
+      <c r="F175" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8" t="s">
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K175" s="8"/>
-      <c r="L175" s="9" t="s">
+      <c r="K175" s="9"/>
+      <c r="L175" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M175" s="5"/>
@@ -10677,33 +10683,33 @@
       <c r="A176" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="D176" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E176" s="8" t="s">
+      <c r="E176" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F176" s="8" t="s">
+      <c r="F176" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8" t="s">
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J176" s="8" t="s">
+      <c r="J176" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="K176" s="8" t="s">
+      <c r="K176" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="L176" s="9" t="s">
+      <c r="L176" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M176" s="5"/>
@@ -10721,31 +10727,31 @@
       <c r="A177" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E177" s="8" t="s">
+      <c r="E177" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F177" s="8" t="s">
+      <c r="F177" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G177" s="8" t="s">
+      <c r="G177" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8" t="s">
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K177" s="8"/>
-      <c r="L177" s="9" t="s">
+      <c r="K177" s="9"/>
+      <c r="L177" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M177" s="5"/>
@@ -10763,27 +10769,27 @@
       <c r="A178" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D178" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8" t="s">
+      <c r="E178" s="9"/>
+      <c r="F178" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="8" t="s">
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K178" s="8"/>
-      <c r="L178" s="9" t="s">
+      <c r="K178" s="9"/>
+      <c r="L178" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M178" s="5"/>
@@ -10801,29 +10807,29 @@
       <c r="A179" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E179" s="8" t="s">
+      <c r="E179" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F179" s="8" t="s">
+      <c r="F179" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="8" t="s">
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K179" s="8"/>
-      <c r="L179" s="9" t="s">
+      <c r="K179" s="9"/>
+      <c r="L179" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M179" s="5"/>
@@ -10841,33 +10847,33 @@
       <c r="A180" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D180" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E180" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F180" s="8" t="s">
+      <c r="F180" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8" t="s">
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="J180" s="8" t="s">
+      <c r="J180" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="K180" s="8" t="s">
+      <c r="K180" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="L180" s="9" t="s">
+      <c r="L180" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M180" s="5"/>
@@ -10885,33 +10891,33 @@
       <c r="A181" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="D181" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E181" s="8" t="s">
+      <c r="E181" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F181" s="8" t="s">
+      <c r="F181" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G181" s="8" t="s">
+      <c r="G181" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8" t="s">
+      <c r="H181" s="9"/>
+      <c r="I181" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J181" s="8" t="s">
+      <c r="J181" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K181" s="8"/>
-      <c r="L181" s="9" t="s">
+      <c r="K181" s="9"/>
+      <c r="L181" s="10" t="s">
         <v>309</v>
       </c>
       <c r="M181" s="5"/>
@@ -10939,25 +10945,25 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
-      <c r="L182" s="10" t="s">
+      <c r="L182" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M182" s="11" t="s">
+      <c r="M182" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="N182" s="11" t="s">
+      <c r="N182" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O182" s="11"/>
-      <c r="P182" s="11"/>
-      <c r="Q182" s="11"/>
-      <c r="R182" s="11"/>
-      <c r="S182" s="11"/>
-      <c r="T182" s="11"/>
-      <c r="U182" s="11" t="s">
+      <c r="O182" s="13"/>
+      <c r="P182" s="13"/>
+      <c r="Q182" s="13"/>
+      <c r="R182" s="13"/>
+      <c r="S182" s="13"/>
+      <c r="T182" s="13"/>
+      <c r="U182" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="V182" s="11" t="s">
+      <c r="V182" s="13" t="s">
         <v>343</v>
       </c>
     </row>
@@ -10975,29 +10981,29 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
-      <c r="L183" s="10" t="s">
+      <c r="L183" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M183" s="11" t="s">
+      <c r="M183" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N183" s="11" t="s">
+      <c r="N183" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O183" s="11" t="s">
+      <c r="O183" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P183" s="11"/>
-      <c r="Q183" s="11" t="s">
+      <c r="P183" s="13"/>
+      <c r="Q183" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="R183" s="11"/>
-      <c r="S183" s="11"/>
-      <c r="T183" s="11"/>
-      <c r="U183" s="11" t="s">
+      <c r="R183" s="13"/>
+      <c r="S183" s="13"/>
+      <c r="T183" s="13"/>
+      <c r="U183" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="V183" s="11"/>
+      <c r="V183" s="13"/>
     </row>
     <row r="184" spans="1:22">
       <c r="A184" s="5" t="s">
@@ -11013,33 +11019,33 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
-      <c r="L184" s="10" t="s">
+      <c r="L184" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M184" s="11" t="s">
+      <c r="M184" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N184" s="11" t="s">
+      <c r="N184" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O184" s="11" t="s">
+      <c r="O184" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P184" s="11" t="s">
+      <c r="P184" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q184" s="11" t="s">
+      <c r="Q184" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="R184" s="11"/>
-      <c r="S184" s="11"/>
-      <c r="T184" s="11" t="s">
+      <c r="R184" s="13"/>
+      <c r="S184" s="13"/>
+      <c r="T184" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="U184" s="11" t="s">
+      <c r="U184" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="V184" s="11" t="s">
+      <c r="V184" s="13" t="s">
         <v>306</v>
       </c>
     </row>
@@ -11057,33 +11063,33 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
-      <c r="L185" s="10" t="s">
+      <c r="L185" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M185" s="11" t="s">
+      <c r="M185" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N185" s="11" t="s">
+      <c r="N185" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O185" s="11" t="s">
+      <c r="O185" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P185" s="11" t="s">
+      <c r="P185" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Q185" s="11" t="s">
+      <c r="Q185" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="R185" s="11" t="s">
+      <c r="R185" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="S185" s="11"/>
-      <c r="T185" s="11"/>
-      <c r="U185" s="11" t="s">
+      <c r="S185" s="13"/>
+      <c r="T185" s="13"/>
+      <c r="U185" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="V185" s="11"/>
+      <c r="V185" s="13"/>
     </row>
     <row r="186" spans="1:22">
       <c r="A186" s="5" t="s">
@@ -11099,29 +11105,29 @@
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
-      <c r="L186" s="10" t="s">
+      <c r="L186" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M186" s="11" t="s">
+      <c r="M186" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N186" s="11" t="s">
+      <c r="N186" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O186" s="11" t="s">
+      <c r="O186" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P186" s="11"/>
-      <c r="Q186" s="11" t="s">
+      <c r="P186" s="13"/>
+      <c r="Q186" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="R186" s="11"/>
-      <c r="S186" s="11"/>
-      <c r="T186" s="11"/>
-      <c r="U186" s="11" t="s">
+      <c r="R186" s="13"/>
+      <c r="S186" s="13"/>
+      <c r="T186" s="13"/>
+      <c r="U186" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="V186" s="11"/>
+      <c r="V186" s="13"/>
     </row>
     <row r="187" spans="1:22">
       <c r="A187" s="5" t="s">
@@ -11137,31 +11143,31 @@
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
       <c r="K187" s="5"/>
-      <c r="L187" s="10" t="s">
+      <c r="L187" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M187" s="11" t="s">
+      <c r="M187" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N187" s="11" t="s">
+      <c r="N187" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O187" s="11" t="s">
+      <c r="O187" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P187" s="11" t="s">
+      <c r="P187" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q187" s="11" t="s">
+      <c r="Q187" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="R187" s="11"/>
-      <c r="S187" s="11"/>
-      <c r="T187" s="11"/>
-      <c r="U187" s="11" t="s">
+      <c r="R187" s="13"/>
+      <c r="S187" s="13"/>
+      <c r="T187" s="13"/>
+      <c r="U187" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="V187" s="11"/>
+      <c r="V187" s="13"/>
     </row>
     <row r="188" spans="1:22">
       <c r="A188" s="5" t="s">
@@ -11177,33 +11183,33 @@
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
-      <c r="L188" s="10" t="s">
+      <c r="L188" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M188" s="11" t="s">
+      <c r="M188" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N188" s="11" t="s">
+      <c r="N188" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O188" s="11" t="s">
+      <c r="O188" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P188" s="11" t="s">
+      <c r="P188" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q188" s="11" t="s">
+      <c r="Q188" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="R188" s="11"/>
-      <c r="S188" s="11"/>
-      <c r="T188" s="11" t="s">
+      <c r="R188" s="13"/>
+      <c r="S188" s="13"/>
+      <c r="T188" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="U188" s="11" t="s">
+      <c r="U188" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="V188" s="11" t="s">
+      <c r="V188" s="13" t="s">
         <v>307</v>
       </c>
     </row>
@@ -11221,35 +11227,35 @@
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
-      <c r="L189" s="10" t="s">
+      <c r="L189" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M189" s="11" t="s">
+      <c r="M189" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N189" s="11" t="s">
+      <c r="N189" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O189" s="11" t="s">
+      <c r="O189" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P189" s="11" t="s">
+      <c r="P189" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q189" s="11" t="s">
+      <c r="Q189" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="R189" s="11" t="s">
+      <c r="R189" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="S189" s="11"/>
-      <c r="T189" s="11" t="s">
+      <c r="S189" s="13"/>
+      <c r="T189" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="U189" s="11" t="s">
+      <c r="U189" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="V189" s="11"/>
+      <c r="V189" s="13"/>
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="2" t="s">
@@ -11272,7 +11278,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -11398,52 +11404,52 @@
       <c r="V192" s="5"/>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D193" s="5" t="s">
+      <c r="C193" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E193" s="5"/>
+      <c r="E193" s="2"/>
       <c r="F193" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5" t="s">
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K193" s="5"/>
+      <c r="K193" s="2"/>
       <c r="L193" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M193" s="5" t="s">
+      <c r="M193" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N193" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O193" s="5" t="s">
+      <c r="N193" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O193" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P193" s="5"/>
+      <c r="P193" s="2"/>
       <c r="Q193" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="R193" s="5"/>
-      <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
-      <c r="U193" s="5" t="s">
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V193" s="5"/>
+      <c r="V193" s="2"/>
     </row>
     <row r="194" spans="1:22">
       <c r="A194" s="5" t="s">
@@ -11526,7 +11532,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -11652,52 +11658,52 @@
       <c r="V197" s="5"/>
     </row>
     <row r="198" spans="1:22">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D198" s="5" t="s">
+      <c r="C198" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E198" s="5"/>
+      <c r="E198" s="2"/>
       <c r="F198" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5" t="s">
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K198" s="5"/>
+      <c r="K198" s="2"/>
       <c r="L198" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M198" s="5" t="s">
+      <c r="M198" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N198" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O198" s="5" t="s">
+      <c r="N198" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O198" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P198" s="5"/>
+      <c r="P198" s="2"/>
       <c r="Q198" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="R198" s="5"/>
-      <c r="S198" s="5"/>
-      <c r="T198" s="5"/>
-      <c r="U198" s="5" t="s">
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V198" s="5"/>
+      <c r="V198" s="2"/>
     </row>
     <row r="199" spans="1:22">
       <c r="A199" s="5" t="s">
@@ -11814,48 +11820,48 @@
       <c r="V200" s="5"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C201" s="5"/>
-      <c r="D201" s="5" t="s">
+      <c r="C201" s="2"/>
+      <c r="D201" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E201" s="5"/>
+      <c r="E201" s="2"/>
       <c r="F201" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="5" t="s">
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+      <c r="J201" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K201" s="5"/>
+      <c r="K201" s="2"/>
       <c r="L201" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M201" s="5" t="s">
+      <c r="M201" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N201" s="5"/>
-      <c r="O201" s="5" t="s">
+      <c r="N201" s="2"/>
+      <c r="O201" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P201" s="5"/>
+      <c r="P201" s="2"/>
       <c r="Q201" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="R201" s="5"/>
-      <c r="S201" s="5"/>
-      <c r="T201" s="5"/>
-      <c r="U201" s="5" t="s">
+      <c r="R201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V201" s="5"/>
+      <c r="V201" s="2"/>
     </row>
     <row r="202" spans="1:22">
       <c r="A202" s="5" t="s">
@@ -11910,48 +11916,48 @@
       <c r="V202" s="5"/>
     </row>
     <row r="203" spans="1:22">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5" t="s">
+      <c r="C203" s="2"/>
+      <c r="D203" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E203" s="5"/>
+      <c r="E203" s="2"/>
       <c r="F203" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5" t="s">
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K203" s="5"/>
+      <c r="K203" s="2"/>
       <c r="L203" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M203" s="5" t="s">
+      <c r="M203" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N203" s="5"/>
-      <c r="O203" s="5" t="s">
+      <c r="N203" s="2"/>
+      <c r="O203" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P203" s="5"/>
+      <c r="P203" s="2"/>
       <c r="Q203" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="R203" s="5"/>
-      <c r="S203" s="5"/>
-      <c r="T203" s="5"/>
-      <c r="U203" s="5" t="s">
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="V203" s="5"/>
+      <c r="V203" s="2"/>
     </row>
     <row r="204" spans="1:22">
       <c r="A204" s="5" t="s">
